--- a/TestData/Perfect minutiae/Normal fingers/T_Ale1439794734-Hamster-0-1.xlsx
+++ b/TestData/Perfect minutiae/Normal fingers/T_Ale1439794734-Hamster-0-1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t>X</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -64,15 +61,9 @@
     <t>Finger Header</t>
   </si>
   <si>
-    <t>000000C907D50C0F112314000000ABCD00B5015AABCD0123070000C500C5000200020060</t>
-  </si>
-  <si>
     <t>Finger header</t>
   </si>
   <si>
-    <t>Minutiae number</t>
-  </si>
-  <si>
     <t>Final Template</t>
   </si>
   <si>
@@ -89,6 +80,39 @@
   </si>
   <si>
     <t>Fixed angle</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>4087000B6600</t>
+  </si>
+  <si>
+    <t>464D52002032300000000144000000C0010C00C800C8010000006301</t>
+  </si>
+  <si>
+    <t>464D520020323000000000</t>
+  </si>
+  <si>
+    <t>0000012C019000C500C5010000105B</t>
+  </si>
+  <si>
+    <t>Template size</t>
+  </si>
+  <si>
+    <t>Number of minutie</t>
+  </si>
+  <si>
+    <t>Minutiae number hex</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>0000</t>
   </si>
 </sst>
 </file>
@@ -138,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -150,6 +174,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -168,6 +195,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,8 +482,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -506,13 +537,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -520,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>135.91800000000001</v>
@@ -537,11 +568,11 @@
       </c>
       <c r="I2" t="str">
         <f>IF(B2='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J2" t="str">
-        <f>DEC2HEX(C2, 4)</f>
-        <v>0087</v>
+        <f>DEC2HEX(C2, 2)</f>
+        <v>87</v>
       </c>
       <c r="K2" t="str">
         <f>DEC2HEX(D2, 4)</f>
@@ -552,29 +583,29 @@
         <v>66</v>
       </c>
       <c r="M2" t="str">
-        <f>CONCATENATE(I2,J2,'Support Data'!C7,K2,L2,'Support Data'!$C$8)</f>
-        <v>01008700000B6600</v>
-      </c>
-      <c r="P2" s="9" t="str">
-        <f>CONCATENATE('Support Data'!D11, 'Support Data'!D12)</f>
-        <v>000000C907D50C0F112314000000ABCD00B5015AABCD0123070000C500C500020002006020</v>
-      </c>
-      <c r="Q2" s="10" t="str">
-        <f>CONCATENATE(P2,P10)</f>
-        <v>000000C907D50C0F112314000000ABCD00B5015AABCD0123070000C500C50002000200602001008700000B66001000B500003B670001007100176C0001007600346D001000A0004BE20010008F005B610001005A006170001000410065FC0001007D00826700010035007586000100AA00A9DD0010006B00A0E00010005C009571000100450093F50001002C00C09A0001009C00F3580001003600CE130010004600DBE30001002D00E5130001006600F45A000100AF011E6500010096011A61001000550108E0001000A2013B7100010051010CCF00010037010AAD001000480104C80001007A013B780001006A013074000100A70151770010005D015F0C0001009901678100</v>
-      </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
+        <f>CONCATENATE(I2,J2,'Support Data'!$C$7,K2,L2,'Support Data'!$C$8)</f>
+        <v>4087000B6600</v>
+      </c>
+      <c r="P2" s="10" t="str">
+        <f>CONCATENATE('Support Data'!D11,'Support Data'!D12,'Support Data'!D13,'Support Data'!D14)</f>
+        <v>464D520020323000000000DE0000012C019000C500C5010000105B20</v>
+      </c>
+      <c r="Q2" s="11" t="str">
+        <f>CONCATENATE(P2,P10,'Support Data'!C17)</f>
+        <v>464D520020323000000000DE0000012C019000C500C5010000105B204087000B660080B5003B6700407100176C00407600346D0080A0004BE200808F005B6100405A0061700080410065FC00407D0082670040350075860040AA00A9DD00806B00A0E000805C0095710040450093F500402C00C09A00409C00F35800403600CE1300804600DBE300402D00E51300406600F45A0040AF011E65004096011A610080550108E00080A2013B71004051010CCF004037010AAD0080480104C800407A013B7800406A0130740040A701517700805D015F0C004099016781000000</v>
+      </c>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>181.63300000000001</v>
@@ -589,13 +620,13 @@
         <f t="shared" ref="F3:F33" si="0">E3*256/360</f>
         <v>103.11680000000001</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="str">
         <f>IF(B3='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J33" si="1">DEC2HEX(C3, 4)</f>
-        <v>00B5</v>
+        <f t="shared" ref="J3:J33" si="1">DEC2HEX(C3, 2)</f>
+        <v>B5</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K33" si="2">DEC2HEX(D3, 4)</f>
@@ -606,23 +637,23 @@
         <v>67</v>
       </c>
       <c r="M3" t="str">
-        <f>CONCATENATE(I3,J3,'Support Data'!C8,K3,L3,'Support Data'!$C$8)</f>
-        <v>1000B500003B6700</v>
-      </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
+        <f>CONCATENATE(I3,J3,'Support Data'!$C$7,K3,L3,'Support Data'!$C$8)</f>
+        <v>80B5003B6700</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>113.06100000000001</v>
@@ -639,11 +670,11 @@
       </c>
       <c r="I4" t="str">
         <f>IF(B4='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="1"/>
-        <v>0071</v>
+        <v>71</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="2"/>
@@ -654,22 +685,22 @@
         <v>6C</v>
       </c>
       <c r="M4" t="str">
-        <f>CONCATENATE(I4,J4,'Support Data'!C9,K4,L4,'Support Data'!$C$8)</f>
-        <v>01007100176C00</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
+        <f>CONCATENATE(I4,J4,'Support Data'!$C$7,K4,L4,'Support Data'!$C$8)</f>
+        <v>407100176C00</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>118.776</v>
@@ -686,11 +717,11 @@
       </c>
       <c r="I5" t="str">
         <f>IF(B5='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="1"/>
-        <v>0076</v>
+        <v>76</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="2"/>
@@ -701,22 +732,22 @@
         <v>6D</v>
       </c>
       <c r="M5" t="str">
-        <f>CONCATENATE(I5,J5,'Support Data'!C10,K5,L5,'Support Data'!$C$8)</f>
-        <v>01007600346D00</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
+        <f>CONCATENATE(I5,J5,'Support Data'!$C$7,K5,L5,'Support Data'!$C$8)</f>
+        <v>407600346D00</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>160</v>
@@ -731,13 +762,13 @@
         <f t="shared" si="0"/>
         <v>226.90560000000002</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="str">
         <f>IF(B6='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="1"/>
-        <v>00A0</v>
+        <v>A0</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="2"/>
@@ -748,8 +779,8 @@
         <v>E2</v>
       </c>
       <c r="M6" t="str">
-        <f>CONCATENATE(I6,J6,'Support Data'!C11,K6,L6,'Support Data'!$C$8)</f>
-        <v>1000A0004BE200</v>
+        <f>CONCATENATE(I6,J6,'Support Data'!$C$7,K6,L6,'Support Data'!$C$8)</f>
+        <v>80A0004BE200</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -757,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>143</v>
@@ -772,13 +803,13 @@
         <f t="shared" si="0"/>
         <v>97.629155555555556</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="str">
         <f>IF(B7='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="1"/>
-        <v>008F</v>
+        <v>8F</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="2"/>
@@ -789,8 +820,8 @@
         <v>61</v>
       </c>
       <c r="M7" t="str">
-        <f>CONCATENATE(I7,J7,'Support Data'!C12,K7,L7,'Support Data'!$C$8)</f>
-        <v>10008F005B6100</v>
+        <f>CONCATENATE(I7,J7,'Support Data'!$C$7,K7,L7,'Support Data'!$C$8)</f>
+        <v>808F005B6100</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -798,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>90</v>
@@ -815,11 +846,11 @@
       </c>
       <c r="I8" t="str">
         <f>IF(B8='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="1"/>
-        <v>005A</v>
+        <v>5A</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="2"/>
@@ -830,8 +861,8 @@
         <v>70</v>
       </c>
       <c r="M8" t="str">
-        <f>CONCATENATE(I8,J8,'Support Data'!C13,K8,L8,'Support Data'!$C$8)</f>
-        <v>01005A00617000</v>
+        <f>CONCATENATE(I8,J8,'Support Data'!$C$7,K8,L8,'Support Data'!$C$8)</f>
+        <v>405A00617000</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -839,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>65</v>
@@ -854,13 +885,13 @@
         <f t="shared" si="0"/>
         <v>252.13155555555556</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="str">
         <f>IF(B9='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="1"/>
-        <v>0041</v>
+        <v>41</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="2"/>
@@ -871,11 +902,11 @@
         <v>FC</v>
       </c>
       <c r="M9" t="str">
-        <f>CONCATENATE(I9,J9,'Support Data'!C14,K9,L9,'Support Data'!$C$8)</f>
-        <v>1000410065FC00</v>
+        <f>CONCATENATE(I9,J9,'Support Data'!$C$7,K9,L9,'Support Data'!$C$8)</f>
+        <v>80410065FC00</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -883,7 +914,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>125</v>
@@ -900,11 +931,11 @@
       </c>
       <c r="I10" t="str">
         <f>IF(B10='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="1"/>
-        <v>007D</v>
+        <v>7D</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="2"/>
@@ -915,12 +946,12 @@
         <v>67</v>
       </c>
       <c r="M10" t="str">
-        <f>CONCATENATE(I10,J10,'Support Data'!C15,K10,L10,'Support Data'!$C$8)</f>
-        <v>01007D00826700</v>
+        <f>CONCATENATE(I10,J10,'Support Data'!$C$7,K10,L10,'Support Data'!$C$8)</f>
+        <v>407D00826700</v>
       </c>
       <c r="P10" s="1" t="str">
         <f>CONCATENATE(M2,M3,M4,M5,M6,M7,M8,M9,M10,M11,M12,M13,M14,M15,M16,M17,M18,M19,M20,M21,M22,M23,M24,M25,M26,M27,M28,M29,M30,M31,M32,M33,M34,M35,M36,M37,M38,M39,M40,M41,M42,M43,M44,M45,M46,M47,M48,M49,M50,M51,M52,M53,M54,M55,M56,M57,M58,M59,M60,M61,M62,M63,M64,M65,M66,M67,M68,M69,M70,M71,M72,M73,M74,M75,M76,M77,M78,M79,M80,M81,M82,M83,M84,M85,M86,M87,M88,M89,M90,M91,M92,M93,M94,M95,M96,M97,M98,M99,M100,M101,M102,M103,M104,M105,M106,M107,M108,M109,M110,M111,M112,M113,M114,M115,M116,M117,M118,M119,M120,M121,M122,M123,M124,M125,M126,M127,M128,M129,M130,M131,M132,M133,M134,M135,M136,M137,M138,M139,M140,M141,M142,M143,M144,M145,M146,M147,M148,M149,M150)</f>
-        <v>01008700000B66001000B500003B670001007100176C0001007600346D001000A0004BE20010008F005B610001005A006170001000410065FC0001007D00826700010035007586000100AA00A9DD0010006B00A0E00010005C009571000100450093F50001002C00C09A0001009C00F3580001003600CE130010004600DBE30001002D00E5130001006600F45A000100AF011E6500010096011A61001000550108E0001000A2013B7100010051010CCF00010037010AAD001000480104C80001007A013B780001006A013074000100A70151770010005D015F0C0001009901678100</v>
+        <v>4087000B660080B5003B6700407100176C00407600346D0080A0004BE200808F005B6100405A0061700080410065FC00407D0082670040350075860040AA00A9DD00806B00A0E000805C0095710040450093F500402C00C09A00409C00F35800403600CE1300804600DBE300402D00E51300406600F45A0040AF011E65004096011A610080550108E00080A2013B71004051010CCF004037010AAD0080480104C800407A013B7800406A0130740040A701517700805D015F0C00409901678100</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -928,7 +959,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>53.061</v>
@@ -945,11 +976,11 @@
       </c>
       <c r="I11" t="str">
         <f>IF(B11='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="1"/>
-        <v>0035</v>
+        <v>35</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="2"/>
@@ -960,8 +991,8 @@
         <v>86</v>
       </c>
       <c r="M11" t="str">
-        <f>CONCATENATE(I11,J11,'Support Data'!C16,K11,L11,'Support Data'!$C$8)</f>
-        <v>01003500758600</v>
+        <f>CONCATENATE(I11,J11,'Support Data'!$C$7,K11,L11,'Support Data'!$C$8)</f>
+        <v>403500758600</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -969,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>170.20400000000001</v>
@@ -986,11 +1017,11 @@
       </c>
       <c r="I12" t="str">
         <f>IF(B12='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="1"/>
-        <v>00AA</v>
+        <v>AA</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="2"/>
@@ -1001,8 +1032,8 @@
         <v>DD</v>
       </c>
       <c r="M12" t="str">
-        <f>CONCATENATE(I12,J12,'Support Data'!C17,K12,L12,'Support Data'!$C$8)</f>
-        <v>0100AA00A9DD00</v>
+        <f>CONCATENATE(I12,J12,'Support Data'!$C$7,K12,L12,'Support Data'!$C$8)</f>
+        <v>40AA00A9DD00</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1010,7 +1041,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>107.34699999999999</v>
@@ -1025,13 +1056,13 @@
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="str">
         <f>IF(B13='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="1"/>
-        <v>006B</v>
+        <v>6B</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="2"/>
@@ -1042,8 +1073,8 @@
         <v>E0</v>
       </c>
       <c r="M13" t="str">
-        <f>CONCATENATE(I13,J13,'Support Data'!C18,K13,L13,'Support Data'!$C$8)</f>
-        <v>10006B00A0E000</v>
+        <f>CONCATENATE(I13,J13,'Support Data'!$C$7,K13,L13,'Support Data'!$C$8)</f>
+        <v>806B00A0E000</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1051,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>92.245000000000005</v>
@@ -1066,13 +1097,13 @@
         <f t="shared" si="0"/>
         <v>113.17048888888888</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="str">
         <f>IF(B14='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="1"/>
-        <v>005C</v>
+        <v>5C</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="2"/>
@@ -1083,8 +1114,8 @@
         <v>71</v>
       </c>
       <c r="M14" t="str">
-        <f>CONCATENATE(I14,J14,'Support Data'!C19,K14,L14,'Support Data'!$C$8)</f>
-        <v>10005C00957100</v>
+        <f>CONCATENATE(I14,J14,'Support Data'!$C$7,K14,L14,'Support Data'!$C$8)</f>
+        <v>805C00957100</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1092,7 +1123,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>69.796000000000006</v>
@@ -1109,11 +1140,11 @@
       </c>
       <c r="I15" t="str">
         <f>IF(B15='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="1"/>
-        <v>0045</v>
+        <v>45</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
@@ -1124,8 +1155,8 @@
         <v>F5</v>
       </c>
       <c r="M15" t="str">
-        <f>CONCATENATE(I15,J15,'Support Data'!C20,K15,L15,'Support Data'!$C$8)</f>
-        <v>0100450093F500</v>
+        <f>CONCATENATE(I15,J15,'Support Data'!$C$7,K15,L15,'Support Data'!$C$8)</f>
+        <v>40450093F500</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1133,7 +1164,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>44.082000000000001</v>
@@ -1150,11 +1181,11 @@
       </c>
       <c r="I16" t="str">
         <f>IF(B16='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="1"/>
-        <v>002C</v>
+        <v>2C</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="2"/>
@@ -1165,8 +1196,8 @@
         <v>9A</v>
       </c>
       <c r="M16" t="str">
-        <f>CONCATENATE(I16,J16,'Support Data'!C21,K16,L16,'Support Data'!$C$8)</f>
-        <v>01002C00C09A00</v>
+        <f>CONCATENATE(I16,J16,'Support Data'!$C$7,K16,L16,'Support Data'!$C$8)</f>
+        <v>402C00C09A00</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1174,7 +1205,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>156.73500000000001</v>
@@ -1191,11 +1222,11 @@
       </c>
       <c r="I17" t="str">
         <f>IF(B17='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="1"/>
-        <v>009C</v>
+        <v>9C</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="2"/>
@@ -1206,8 +1237,8 @@
         <v>58</v>
       </c>
       <c r="M17" t="str">
-        <f>CONCATENATE(I17,J17,'Support Data'!C22,K17,L17,'Support Data'!$C$8)</f>
-        <v>01009C00F35800</v>
+        <f>CONCATENATE(I17,J17,'Support Data'!$C$7,K17,L17,'Support Data'!$C$8)</f>
+        <v>409C00F35800</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1215,7 +1246,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>54.286000000000001</v>
@@ -1232,11 +1263,11 @@
       </c>
       <c r="I18" t="str">
         <f>IF(B18='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="1"/>
-        <v>0036</v>
+        <v>36</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="2"/>
@@ -1247,8 +1278,8 @@
         <v>13</v>
       </c>
       <c r="M18" t="str">
-        <f>CONCATENATE(I18,J18,'Support Data'!C23,K18,L18,'Support Data'!$C$8)</f>
-        <v>01003600CE1300</v>
+        <f>CONCATENATE(I18,J18,'Support Data'!$C$7,K18,L18,'Support Data'!$C$8)</f>
+        <v>403600CE1300</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1256,7 +1287,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>70.611999999999995</v>
@@ -1271,13 +1302,13 @@
         <f t="shared" si="0"/>
         <v>227.38773333333333</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="str">
         <f>IF(B19='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="1"/>
-        <v>0046</v>
+        <v>46</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="2"/>
@@ -1288,8 +1319,8 @@
         <v>E3</v>
       </c>
       <c r="M19" t="str">
-        <f>CONCATENATE(I19,J19,'Support Data'!C24,K19,L19,'Support Data'!$C$8)</f>
-        <v>10004600DBE300</v>
+        <f>CONCATENATE(I19,J19,'Support Data'!$C$7,K19,L19,'Support Data'!$C$8)</f>
+        <v>804600DBE300</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1297,7 +1328,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>45.305999999999997</v>
@@ -1314,11 +1345,11 @@
       </c>
       <c r="I20" t="str">
         <f>IF(B20='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="1"/>
-        <v>002D</v>
+        <v>2D</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="2"/>
@@ -1329,8 +1360,8 @@
         <v>13</v>
       </c>
       <c r="M20" t="str">
-        <f>CONCATENATE(I20,J20,'Support Data'!C25,K20,L20,'Support Data'!$C$8)</f>
-        <v>01002D00E51300</v>
+        <f>CONCATENATE(I20,J20,'Support Data'!$C$7,K20,L20,'Support Data'!$C$8)</f>
+        <v>402D00E51300</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1338,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>102.041</v>
@@ -1355,11 +1386,11 @@
       </c>
       <c r="I21" t="str">
         <f>IF(B21='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="1"/>
-        <v>0066</v>
+        <v>66</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="2"/>
@@ -1370,8 +1401,8 @@
         <v>5A</v>
       </c>
       <c r="M21" t="str">
-        <f>CONCATENATE(I21,J21,'Support Data'!C26,K21,L21,'Support Data'!$C$8)</f>
-        <v>01006600F45A00</v>
+        <f>CONCATENATE(I21,J21,'Support Data'!$C$7,K21,L21,'Support Data'!$C$8)</f>
+        <v>406600F45A00</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1379,7 +1410,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>175.102</v>
@@ -1396,11 +1427,11 @@
       </c>
       <c r="I22" t="str">
         <f>IF(B22='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="1"/>
-        <v>00AF</v>
+        <v>AF</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="2"/>
@@ -1411,8 +1442,8 @@
         <v>65</v>
       </c>
       <c r="M22" t="str">
-        <f>CONCATENATE(I22,J22,'Support Data'!C27,K22,L22,'Support Data'!$C$8)</f>
-        <v>0100AF011E6500</v>
+        <f>CONCATENATE(I22,J22,'Support Data'!$C$7,K22,L22,'Support Data'!$C$8)</f>
+        <v>40AF011E6500</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1420,7 +1451,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>150.61199999999999</v>
@@ -1437,11 +1468,11 @@
       </c>
       <c r="I23" t="str">
         <f>IF(B23='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="1"/>
-        <v>0096</v>
+        <v>96</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="2"/>
@@ -1452,8 +1483,8 @@
         <v>61</v>
       </c>
       <c r="M23" t="str">
-        <f>CONCATENATE(I23,J23,'Support Data'!C28,K23,L23,'Support Data'!$C$8)</f>
-        <v>010096011A6100</v>
+        <f>CONCATENATE(I23,J23,'Support Data'!$C$7,K23,L23,'Support Data'!$C$8)</f>
+        <v>4096011A6100</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1461,7 +1492,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>85.305999999999997</v>
@@ -1476,13 +1507,13 @@
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="str">
         <f>IF(B24='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="1"/>
-        <v>0055</v>
+        <v>55</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="2"/>
@@ -1493,8 +1524,8 @@
         <v>E0</v>
       </c>
       <c r="M24" t="str">
-        <f>CONCATENATE(I24,J24,'Support Data'!C29,K24,L24,'Support Data'!$C$8)</f>
-        <v>1000550108E000</v>
+        <f>CONCATENATE(I24,J24,'Support Data'!$C$7,K24,L24,'Support Data'!$C$8)</f>
+        <v>80550108E000</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1502,7 +1533,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>162.44900000000001</v>
@@ -1517,13 +1548,13 @@
         <f t="shared" si="0"/>
         <v>113.17048888888888</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="str">
         <f>IF(B25='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="1"/>
-        <v>00A2</v>
+        <v>A2</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="2"/>
@@ -1534,8 +1565,8 @@
         <v>71</v>
       </c>
       <c r="M25" t="str">
-        <f>CONCATENATE(I25,J25,'Support Data'!C30,K25,L25,'Support Data'!$C$8)</f>
-        <v>1000A2013B7100</v>
+        <f>CONCATENATE(I25,J25,'Support Data'!$C$7,K25,L25,'Support Data'!$C$8)</f>
+        <v>80A2013B7100</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1543,7 +1574,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>81.224000000000004</v>
@@ -1560,11 +1591,11 @@
       </c>
       <c r="I26" t="str">
         <f>IF(B26='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="1"/>
-        <v>0051</v>
+        <v>51</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="2"/>
@@ -1575,8 +1606,8 @@
         <v>CF</v>
       </c>
       <c r="M26" t="str">
-        <f>CONCATENATE(I26,J26,'Support Data'!C31,K26,L26,'Support Data'!$C$8)</f>
-        <v>010051010CCF00</v>
+        <f>CONCATENATE(I26,J26,'Support Data'!$C$7,K26,L26,'Support Data'!$C$8)</f>
+        <v>4051010CCF00</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1584,7 +1615,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>55.51</v>
@@ -1601,11 +1632,11 @@
       </c>
       <c r="I27" t="str">
         <f>IF(B27='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="1"/>
-        <v>0037</v>
+        <v>37</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="2"/>
@@ -1616,8 +1647,8 @@
         <v>AD</v>
       </c>
       <c r="M27" t="str">
-        <f>CONCATENATE(I27,J27,'Support Data'!C32,K27,L27,'Support Data'!$C$8)</f>
-        <v>010037010AAD00</v>
+        <f>CONCATENATE(I27,J27,'Support Data'!$C$7,K27,L27,'Support Data'!$C$8)</f>
+        <v>4037010AAD00</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1625,7 +1656,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>72.245000000000005</v>
@@ -1640,13 +1671,13 @@
         <f t="shared" si="0"/>
         <v>200.9095111111111</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="str">
         <f>IF(B28='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="1"/>
-        <v>0048</v>
+        <v>48</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="2"/>
@@ -1657,8 +1688,8 @@
         <v>C8</v>
       </c>
       <c r="M28" t="str">
-        <f>CONCATENATE(I28,J28,'Support Data'!C33,K28,L28,'Support Data'!$C$8)</f>
-        <v>1000480104C800</v>
+        <f>CONCATENATE(I28,J28,'Support Data'!$C$7,K28,L28,'Support Data'!$C$8)</f>
+        <v>80480104C800</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1666,7 +1697,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>122.857</v>
@@ -1683,11 +1714,11 @@
       </c>
       <c r="I29" t="str">
         <f>IF(B29='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="1"/>
-        <v>007A</v>
+        <v>7A</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="2"/>
@@ -1698,8 +1729,8 @@
         <v>78</v>
       </c>
       <c r="M29" t="str">
-        <f>CONCATENATE(I29,J29,'Support Data'!C34,K29,L29,'Support Data'!$C$8)</f>
-        <v>01007A013B7800</v>
+        <f>CONCATENATE(I29,J29,'Support Data'!$C$7,K29,L29,'Support Data'!$C$8)</f>
+        <v>407A013B7800</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1707,7 +1738,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>106.122</v>
@@ -1724,11 +1755,11 @@
       </c>
       <c r="I30" t="str">
         <f>IF(B30='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="1"/>
-        <v>006A</v>
+        <v>6A</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="2"/>
@@ -1739,8 +1770,8 @@
         <v>74</v>
       </c>
       <c r="M30" t="str">
-        <f>CONCATENATE(I30,J30,'Support Data'!C35,K30,L30,'Support Data'!$C$8)</f>
-        <v>01006A01307400</v>
+        <f>CONCATENATE(I30,J30,'Support Data'!$C$7,K30,L30,'Support Data'!$C$8)</f>
+        <v>406A01307400</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1748,7 +1779,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>167.34700000000001</v>
@@ -1765,11 +1796,11 @@
       </c>
       <c r="I31" t="str">
         <f>IF(B31='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="1"/>
-        <v>00A7</v>
+        <v>A7</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="2"/>
@@ -1780,8 +1811,8 @@
         <v>77</v>
       </c>
       <c r="M31" t="str">
-        <f>CONCATENATE(I31,J31,'Support Data'!C36,K31,L31,'Support Data'!$C$8)</f>
-        <v>0100A701517700</v>
+        <f>CONCATENATE(I31,J31,'Support Data'!$C$7,K31,L31,'Support Data'!$C$8)</f>
+        <v>40A701517700</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1789,7 +1820,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>93.468999999999994</v>
@@ -1804,13 +1835,13 @@
         <f t="shared" si="0"/>
         <v>12.55111111111111</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="str">
         <f>IF(B32='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="1"/>
-        <v>005D</v>
+        <v>5D</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="2"/>
@@ -1821,8 +1852,8 @@
         <v>0C</v>
       </c>
       <c r="M32" t="str">
-        <f>CONCATENATE(I32,J32,'Support Data'!C37,K32,L32,'Support Data'!$C$8)</f>
-        <v>10005D015F0C00</v>
+        <f>CONCATENATE(I32,J32,'Support Data'!$C$7,K32,L32,'Support Data'!$C$8)</f>
+        <v>805D015F0C00</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1830,7 +1861,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>153.06100000000001</v>
@@ -1847,11 +1878,11 @@
       </c>
       <c r="I33" t="str">
         <f>IF(B33='Support Data'!$B$4, 'Support Data'!$C$4, 'Support Data'!$C$3)</f>
-        <v>01</v>
+        <v>40</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="1"/>
-        <v>0099</v>
+        <v>99</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="2"/>
@@ -1862,8 +1893,8 @@
         <v>81</v>
       </c>
       <c r="M33" t="str">
-        <f>CONCATENATE(I33,J33,'Support Data'!C38,K33,L33,'Support Data'!$C$8)</f>
-        <v>01009901678100</v>
+        <f>CONCATENATE(I33,J33,'Support Data'!$C$7,K33,L33,'Support Data'!$C$8)</f>
+        <v>409901678100</v>
       </c>
     </row>
   </sheetData>
@@ -1882,20 +1913,20 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Collected Minutiae'!Q2</f>
-        <v>000000C907D50C0F112314000000ABCD00B5015AABCD0123070000C500C50002000200602001008700000B66001000B500003B670001007100176C0001007600346D001000A0004BE20010008F005B610001005A006170001000410065FC0001007D00826700010035007586000100AA00A9DD0010006B00A0E00010005C009571000100450093F50001002C00C09A0001009C00F3580001003600CE130010004600DBE30001002D00E5130001006600F45A000100AF011E6500010096011A61001000550108E0001000A2013B7100010051010CCF00010037010AAD001000480104C80001007A013B780001006A013074000100A70151770010005D015F0C0001009901678100</v>
+        <v>464D520020323000000000DE0000012C019000C500C5010000105B204087000B660080B5003B6700407100176C00407600346D0080A0004BE200808F005B6100405A0061700080410065FC00407D0082670040350075860040AA00A9DD00806B00A0E000805C0095710040450093F500402C00C09A00409C00F35800403600CE1300804600DBE300402D00E51300406600F45A0040AF011E65004096011A610080550108E00080A2013B71004051010CCF004037010AAD0080480104C800407A013B7800406A0130740040A701517700805D015F0C004099016781000000</v>
       </c>
     </row>
   </sheetData>
@@ -1906,10 +1937,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,15 +1950,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1941,10 +1972,10 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1953,10 +1984,10 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1965,10 +1996,10 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1985,11 +2016,9 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1997,10 +2026,10 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2024,46 +2053,95 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13"/>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="1" t="str">
+      <c r="B12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" t="str">
+        <f>DEC2HEX(SUM(27,(6*D15),3))</f>
+        <v>DE</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="1" t="str">
         <f>DEC2HEX(COUNT('Collected Minutiae'!A2:A1000), 2)</f>
         <v>20</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>COUNT('Collected Minutiae'!A2:A1000)</f>
+        <v>32</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="str">
+        <f>CONCATENATE(C21,C22,0)</f>
+        <v>464D52002032300000000144000000C0010C00C800C80100000063014087000B66000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
